--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\OneDrive\School\Year 2\DSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Sexy-Egels\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -650,7 +650,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <f>B4/(B1/100)</f>
@@ -727,7 +727,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
         <f>B5/(B1/100)</f>
@@ -757,7 +757,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5">
         <f>B6/(B1/100)</f>
@@ -787,7 +787,7 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5">
         <f>B7/(B1/100)</f>
@@ -817,7 +817,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
         <f>B8/(B1/100)</f>
@@ -847,7 +847,7 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5">
         <f>B9/(B1/100)</f>
@@ -3182,7 +3182,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3269,13 +3269,27 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -3326,31 +3340,31 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -635,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -650,7 +650,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -697,11 +697,11 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
         <f>B4/(B1/100)</f>
-        <v>100</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="D4" s="5">
         <f>SUM('Week 6:Week 27'!C11)</f>
@@ -727,11 +727,11 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5">
         <f>B5/(B1/100)</f>
-        <v>100</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="D5" s="5">
         <f>SUM('Week 6:Week 27'!D11)</f>
@@ -757,11 +757,11 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5">
         <f>B6/(B1/100)</f>
-        <v>100</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="D6" s="5">
         <f>SUM('Week 6:Week 27'!E11)</f>
@@ -787,11 +787,11 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5">
         <f>B7/(B1/100)</f>
-        <v>100</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -817,11 +817,11 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5">
         <f>B8/(B1/100)</f>
-        <v>100</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="D8" s="5">
         <f>SUM('Week 6:Week 27'!G11)</f>
@@ -847,11 +847,11 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5">
         <f>B9/(B1/100)</f>
-        <v>100</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="D9" s="5">
         <f>SUM('Week 6:Week 27'!H11)</f>
@@ -3181,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3297,13 +3297,27 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -3311,7 +3325,9 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>9</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -3340,31 +3356,31 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="24">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Afwezigheid</t>
+  </si>
+  <si>
+    <t>Maaike had 2 uurtjes Rijles.</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +653,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -696,12 +699,12 @@
         <v>14</v>
       </c>
       <c r="B4" s="5">
-        <f>SUM('Week 6:Week 27'!C8)</f>
-        <v>10</v>
+        <f>SUM('Week 6:Week 27'!C8, F4)</f>
+        <v>18</v>
       </c>
       <c r="C4" s="5">
         <f>B4/(B1/100)</f>
-        <v>52.631578947368418</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5">
         <f>SUM('Week 6:Week 27'!C11)</f>
@@ -726,12 +729,12 @@
         <v>15</v>
       </c>
       <c r="B5" s="5">
-        <f>SUM('Week 6:Week 27'!D8)</f>
-        <v>10</v>
+        <f>SUM('Week 6:Week 27'!D8,F5)</f>
+        <v>18</v>
       </c>
       <c r="C5" s="5">
         <f>B5/(B1/100)</f>
-        <v>52.631578947368418</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5">
         <f>SUM('Week 6:Week 27'!D11)</f>
@@ -756,12 +759,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <f>SUM('Week 6:Week 27'!E8)</f>
-        <v>10</v>
+        <f>SUM('Week 6:Week 27'!E8,F6)</f>
+        <v>18</v>
       </c>
       <c r="C6" s="5">
         <f>B6/(B1/100)</f>
-        <v>52.631578947368418</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5">
         <f>SUM('Week 6:Week 27'!E11)</f>
@@ -786,12 +789,12 @@
         <v>3</v>
       </c>
       <c r="B7" s="5">
-        <f>SUM('Week 6:Week 27'!F8)</f>
-        <v>10</v>
+        <f>SUM('Week 6:Week 27'!F8,F7)</f>
+        <v>18</v>
       </c>
       <c r="C7" s="5">
         <f>B7/(B1/100)</f>
-        <v>52.631578947368418</v>
+        <v>100</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -803,11 +806,11 @@
       </c>
       <c r="F7" s="14">
         <f>SUM('Week 6:Week 27'!F12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="14">
         <f>F7/(B1/100)</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -816,12 +819,12 @@
         <v>16</v>
       </c>
       <c r="B8" s="5">
-        <f>SUM('Week 6:Week 27'!G8)</f>
-        <v>10</v>
+        <f>SUM('Week 6:Week 27'!G8,F8)</f>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f>B8/(B1/100)</f>
-        <v>52.631578947368418</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5">
         <f>SUM('Week 6:Week 27'!G11)</f>
@@ -846,12 +849,12 @@
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <f>SUM('Week 6:Week 27'!H8)</f>
-        <v>10</v>
+        <f>SUM('Week 6:Week 27'!H8,F9)</f>
+        <v>18</v>
       </c>
       <c r="C9" s="5">
         <f>B9/(B1/100)</f>
-        <v>52.631578947368418</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5">
         <f>SUM('Week 6:Week 27'!H11)</f>
@@ -3181,8 +3184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3326,15 +3329,30 @@
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3356,31 +3374,31 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -3437,7 +3455,9 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="1"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="25">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Maaike had 2 uurtjes Rijles.</t>
+  </si>
+  <si>
+    <t>Rilana is naar de tandarts</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -700,7 +703,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5">
         <f>B4/(B1/100)</f>
@@ -730,7 +733,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
         <f>B5/(B1/100)</f>
@@ -760,7 +763,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5">
         <f>B6/(B1/100)</f>
@@ -790,7 +793,7 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5">
         <f>B7/(B1/100)</f>
@@ -810,7 +813,7 @@
       </c>
       <c r="G7" s="14">
         <f>F7/(B1/100)</f>
-        <v>11.111111111111111</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -820,7 +823,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5">
         <f>B8/(B1/100)</f>
@@ -836,11 +839,11 @@
       </c>
       <c r="F8" s="14">
         <f>SUM('Week 6:Week 27'!G12)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="14">
         <f>F8/(B1/100)</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -850,7 +853,7 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5">
         <f>B9/(B1/100)</f>
@@ -3184,7 +3187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4402,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4462,27 +4465,58 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -4490,13 +4524,27 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -4504,13 +4552,27 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -4533,31 +4595,31 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -4605,6 +4667,9 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="26">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Rilana is naar de tandarts</t>
+  </si>
+  <si>
+    <t>Janneke is Ziek</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFill="1"/>
@@ -318,6 +321,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -642,12 +651,14 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E9" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -705,7 +716,7 @@
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
         <v>36</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="19">
         <f>B4/(B1/100)</f>
         <v>100</v>
       </c>
@@ -713,7 +724,7 @@
         <f>SUM('Week 6:Week 27'!C11)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="19">
         <f>D4/(B1/100)</f>
         <v>0</v>
       </c>
@@ -721,7 +732,7 @@
         <f>SUM('Week 6:Week 27'!C12)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="18">
         <f>F4/(B1/100)</f>
         <v>0</v>
       </c>
@@ -735,7 +746,7 @@
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
         <v>36</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="19">
         <f>B5/(B1/100)</f>
         <v>100</v>
       </c>
@@ -743,7 +754,7 @@
         <f>SUM('Week 6:Week 27'!D11)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="19">
         <f>D5/(B1/100)</f>
         <v>0</v>
       </c>
@@ -751,7 +762,7 @@
         <f>SUM('Week 6:Week 27'!D12)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="18">
         <f>F5/(B1/100)</f>
         <v>0</v>
       </c>
@@ -765,7 +776,7 @@
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
         <v>36</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="19">
         <f>B6/(B1/100)</f>
         <v>100</v>
       </c>
@@ -773,17 +784,17 @@
         <f>SUM('Week 6:Week 27'!E11)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="19">
         <f>D6/(B1/100)</f>
         <v>0</v>
       </c>
       <c r="F6" s="14">
         <f>SUM('Week 6:Week 27'!E12)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -795,7 +806,7 @@
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
         <v>36</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="19">
         <f>B7/(B1/100)</f>
         <v>100</v>
       </c>
@@ -803,7 +814,7 @@
         <f>SUM('Week 6:Week 27'!F11)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="19">
         <f>D7/(B1/100)</f>
         <v>0</v>
       </c>
@@ -811,7 +822,7 @@
         <f>SUM('Week 6:Week 27'!F12)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="18">
         <f>F7/(B1/100)</f>
         <v>5.5555555555555554</v>
       </c>
@@ -825,7 +836,7 @@
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
         <v>36</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="19">
         <f>B8/(B1/100)</f>
         <v>100</v>
       </c>
@@ -833,7 +844,7 @@
         <f>SUM('Week 6:Week 27'!G11)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="19">
         <f>D8/(B1/100)</f>
         <v>0</v>
       </c>
@@ -841,7 +852,7 @@
         <f>SUM('Week 6:Week 27'!G12)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="18">
         <f>F8/(B1/100)</f>
         <v>11.111111111111111</v>
       </c>
@@ -855,7 +866,7 @@
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
         <v>36</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="19">
         <f>B9/(B1/100)</f>
         <v>100</v>
       </c>
@@ -863,7 +874,7 @@
         <f>SUM('Week 6:Week 27'!H11)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="19">
         <f>D9/(B1/100)</f>
         <v>0</v>
       </c>
@@ -871,7 +882,7 @@
         <f>SUM('Week 6:Week 27'!H12)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="18">
         <f>F9/(B1/100)</f>
         <v>0</v>
       </c>
@@ -3187,7 +3198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4405,8 +4416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4534,7 +4545,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>4</v>
@@ -4546,6 +4557,9 @@
         <v>4</v>
       </c>
       <c r="I5" s="1"/>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4607,7 +4621,7 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
@@ -4667,6 +4681,9 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
       <c r="G12" s="5">
         <v>4</v>
       </c>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Documents\Important Portable Stuff V1\Year 2\Sexy-Egels\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Desktop\Sexy-Egels\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="27">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Janneke is Ziek</t>
+  </si>
+  <si>
+    <t>Rilana Verslapen</t>
   </si>
 </sst>
 </file>
@@ -850,11 +853,11 @@
       </c>
       <c r="F8" s="14">
         <f>SUM('Week 6:Week 27'!G12)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>11.111111111111111</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -3198,7 +3201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4416,8 +4419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4582,12 +4585,15 @@
         <v>8</v>
       </c>
       <c r="G6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <v>8</v>
       </c>
       <c r="I6" s="1"/>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4629,7 +4635,7 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
@@ -4685,7 +4691,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="28">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Rilana Verslapen</t>
+  </si>
+  <si>
+    <t>Vakantie</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -717,7 +720,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -747,7 +750,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -777,7 +780,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -797,7 +800,7 @@
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>11.111111111111111</v>
+        <v>7.4074074074074066</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -807,7 +810,7 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
@@ -827,7 +830,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>5.5555555555555554</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -837,7 +840,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
@@ -857,7 +860,7 @@
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>33.333333333333336</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -867,7 +870,7 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
@@ -4419,7 +4422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -4720,7 +4723,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4773,6 +4776,9 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1"/>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4949,7 +4955,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4994,13 +5000,27 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -5008,13 +5028,27 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -5022,13 +5056,27 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -5036,13 +5084,27 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -5050,13 +5112,27 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -5079,31 +5155,31 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -5177,7 +5253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="29">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Vakantie</t>
+  </si>
+  <si>
+    <t>Janneke had een doktors afspraak.</t>
   </si>
 </sst>
 </file>
@@ -656,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E4:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,7 +676,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -720,7 +723,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -750,7 +753,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -780,7 +783,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -796,11 +799,11 @@
       </c>
       <c r="F6" s="14">
         <f>SUM('Week 6:Week 27'!E12)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>7.4074074074074066</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -810,7 +813,7 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
@@ -830,7 +833,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>3.7037037037037033</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -840,7 +843,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
@@ -860,7 +863,7 @@
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>22.222222222222221</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -870,7 +873,7 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
@@ -5253,8 +5256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5299,7 +5302,9 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -5313,27 +5318,58 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -5341,13 +5377,27 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -5355,13 +5405,27 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -5384,31 +5448,31 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -5456,6 +5520,9 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="E12">
+        <v>4</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="30">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Janneke had een doktors afspraak.</t>
+  </si>
+  <si>
+    <t>Walter is Ziek</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFill="1"/>
@@ -337,6 +340,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -659,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -676,7 +682,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -723,7 +729,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -753,7 +759,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -783,7 +789,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -803,7 +809,7 @@
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>11.111111111111111</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -813,7 +819,7 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
@@ -833,7 +839,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>2.7777777777777777</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -843,7 +849,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
@@ -863,7 +869,7 @@
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>16.666666666666668</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -873,7 +879,7 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
@@ -889,11 +895,11 @@
       </c>
       <c r="F9" s="14">
         <f>SUM('Week 6:Week 27'!H12)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>0</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -4726,7 +4732,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5256,8 +5262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5520,7 +5526,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>4</v>
       </c>
       <c r="I12" s="1"/>
@@ -5551,7 +5557,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5610,27 +5616,58 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
       <c r="I3" s="1"/>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -5638,13 +5675,27 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -5652,13 +5703,27 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -5681,31 +5746,31 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -5753,6 +5818,9 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="H12" s="20">
+        <v>4</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -5780,7 +5848,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="32">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -135,7 +135,13 @@
     <t>Janneke had een doktors afspraak.</t>
   </si>
   <si>
-    <t>Walter is Ziek</t>
+    <t>Hele crew behalve Walter ziek</t>
+  </si>
+  <si>
+    <t>Walter is ziek</t>
+  </si>
+  <si>
+    <t>Gerwin ziek</t>
   </si>
 </sst>
 </file>
@@ -682,7 +688,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -729,7 +735,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -745,11 +751,11 @@
       </c>
       <c r="F4" s="14">
         <f>SUM('Week 6:Week 27'!C12)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>0</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -759,7 +765,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -775,11 +781,11 @@
       </c>
       <c r="F5" s="14">
         <f>SUM('Week 6:Week 27'!D12)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -789,7 +795,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -805,11 +811,11 @@
       </c>
       <c r="F6" s="14">
         <f>SUM('Week 6:Week 27'!E12)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>8.8888888888888893</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -819,7 +825,7 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
@@ -839,7 +845,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>2.2222222222222223</v>
+        <v>1.8518518518518516</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -849,7 +855,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
@@ -865,11 +871,11 @@
       </c>
       <c r="F8" s="14">
         <f>SUM('Week 6:Week 27'!G12)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>13.333333333333332</v>
+        <v>14.814814814814813</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -879,7 +885,7 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
@@ -899,7 +905,7 @@
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>4.4444444444444446</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -5262,7 +5268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -5557,7 +5563,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5639,7 +5645,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -5679,24 +5685,27 @@
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>4</v>
       </c>
       <c r="G5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5">
         <v>4</v>
       </c>
       <c r="I5" s="1"/>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5710,7 +5719,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
         <v>8</v>
@@ -5725,6 +5734,9 @@
         <v>8</v>
       </c>
       <c r="I6" s="1"/>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5750,23 +5762,23 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
+        <v>14</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
@@ -5818,6 +5830,19 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="C12" s="20">
+        <v>4</v>
+      </c>
+      <c r="D12" s="20">
+        <v>12</v>
+      </c>
+      <c r="E12" s="20">
+        <v>4</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20">
+        <v>4</v>
+      </c>
       <c r="H12" s="20">
         <v>4</v>
       </c>
@@ -5847,8 +5872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5907,13 +5932,27 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -5921,13 +5960,27 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -5935,13 +5988,27 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -5949,13 +6016,27 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -5978,31 +6059,31 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="34">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Gerwin ziek</t>
+  </si>
+  <si>
+    <t>David Familie bezoek, Gerwin ziek</t>
+  </si>
+  <si>
+    <t>Janneke is ziek</t>
   </si>
 </sst>
 </file>
@@ -688,7 +694,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -735,7 +741,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -751,11 +757,11 @@
       </c>
       <c r="F4" s="14">
         <f>SUM('Week 6:Week 27'!C12)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>3.7037037037037033</v>
+        <v>9.8360655737704921</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -765,7 +771,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -781,11 +787,11 @@
       </c>
       <c r="F5" s="14">
         <f>SUM('Week 6:Week 27'!D12)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>11.111111111111111</v>
+        <v>16.393442622950818</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -795,7 +801,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -811,11 +817,11 @@
       </c>
       <c r="F6" s="14">
         <f>SUM('Week 6:Week 27'!E12)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>11.111111111111111</v>
+        <v>11.475409836065573</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -825,11 +831,11 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>100</v>
+        <v>70.491803278688522</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -845,7 +851,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>1.8518518518518516</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -855,7 +861,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
@@ -875,7 +881,7 @@
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>14.814814814814813</v>
+        <v>13.114754098360656</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -885,7 +891,7 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
@@ -905,7 +911,7 @@
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>3.7037037037037033</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -5269,7 +5275,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5563,7 +5569,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5635,7 +5641,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>4</v>
@@ -5666,7 +5672,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -5694,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -5725,7 +5731,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>8</v>
@@ -5774,7 +5780,7 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
@@ -5872,8 +5878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5945,7 +5951,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>4</v>
@@ -5973,7 +5979,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -6001,7 +6007,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
         <v>4</v>
@@ -6020,16 +6026,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>8</v>
@@ -6038,6 +6044,9 @@
         <v>8</v>
       </c>
       <c r="I6" s="1"/>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6063,19 +6072,19 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
+        <v>10</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
@@ -6131,6 +6140,12 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -6157,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6231,27 +6246,56 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -6259,13 +6303,27 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -6288,31 +6346,31 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -6360,6 +6418,9 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -694,7 +694,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -741,7 +741,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -761,7 +761,7 @@
       </c>
       <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>9.8360655737704921</v>
+        <v>8.5714285714285712</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -791,7 +791,7 @@
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>16.393442622950818</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -821,7 +821,7 @@
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>11.475409836065573</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -831,11 +831,11 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>70.491803278688522</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -851,7 +851,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>1.639344262295082</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
@@ -881,7 +881,7 @@
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>13.114754098360656</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
@@ -911,7 +911,7 @@
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>3.278688524590164</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,13 +995,27 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -1009,13 +1023,27 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -1023,13 +1051,27 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -1037,13 +1079,27 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -1066,31 +1122,31 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -6172,7 +6228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="36">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Janneke is ziek</t>
+  </si>
+  <si>
+    <t>Gerwin was ziek</t>
+  </si>
+  <si>
+    <t>Janneke was Ziek, Walter is te laat.</t>
   </si>
 </sst>
 </file>
@@ -677,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,11 +793,11 @@
       </c>
       <c r="F5" s="14">
         <f>SUM('Week 6:Week 27'!D12)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>14.285714285714286</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -817,11 +823,11 @@
       </c>
       <c r="F6" s="14">
         <f>SUM('Week 6:Week 27'!E12)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>10</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -891,19 +897,19 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
-        <v>100</v>
+        <v>97.142857142857153</v>
       </c>
       <c r="D9" s="5">
         <f>SUM('Week 6:Week 27'!H11)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="19">
         <f>D9/(B1/100)</f>
-        <v>0</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="F9" s="14">
         <f>SUM('Week 6:Week 27'!H12)</f>
@@ -935,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -1017,6 +1023,9 @@
         <v>4</v>
       </c>
       <c r="I3" s="1"/>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1061,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>4</v>
@@ -1070,9 +1079,12 @@
         <v>4</v>
       </c>
       <c r="H5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1"/>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1130,23 +1142,23 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E8" s="5">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -1185,6 +1197,9 @@
         <v>20</v>
       </c>
       <c r="B11" s="7"/>
+      <c r="H11">
+        <v>4</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1194,6 +1209,12 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="37">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Janneke was Ziek, Walter is te laat.</t>
+  </si>
+  <si>
+    <t>Gerwin en Rilana waren ziek.</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -700,7 +703,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -747,7 +750,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -767,7 +770,7 @@
       </c>
       <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>8.5714285714285712</v>
+        <v>7.5949367088607591</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -777,7 +780,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -793,11 +796,11 @@
       </c>
       <c r="F5" s="14">
         <f>SUM('Week 6:Week 27'!D12)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>17.142857142857142</v>
+        <v>17.721518987341771</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -807,7 +810,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -827,7 +830,7 @@
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>12.857142857142858</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -837,11 +840,11 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>74.285714285714292</v>
+        <v>74.683544303797461</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -857,7 +860,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>1.4285714285714286</v>
+        <v>1.2658227848101264</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -867,7 +870,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
@@ -883,11 +886,11 @@
       </c>
       <c r="F8" s="14">
         <f>SUM('Week 6:Week 27'!G12)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>11.428571428571429</v>
+        <v>12.658227848101266</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -897,11 +900,11 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
-        <v>97.142857142857153</v>
+        <v>97.468354430379748</v>
       </c>
       <c r="D9" s="5">
         <f>SUM('Week 6:Week 27'!H11)</f>
@@ -909,7 +912,7 @@
       </c>
       <c r="E9" s="19">
         <f>D9/(B1/100)</f>
-        <v>2.8571428571428572</v>
+        <v>2.5316455696202529</v>
       </c>
       <c r="F9" s="14">
         <f>SUM('Week 6:Week 27'!H12)</f>
@@ -917,7 +920,7 @@
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>2.8571428571428572</v>
+        <v>2.5316455696202529</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1241,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1301,27 +1304,52 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -1329,13 +1357,27 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -1343,13 +1385,27 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -1372,31 +1428,31 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -1444,6 +1500,12 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -686,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -703,7 +703,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -770,7 +770,7 @@
       </c>
       <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>7.5949367088607591</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -800,7 +800,7 @@
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>17.721518987341771</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -830,7 +830,7 @@
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>11.39240506329114</v>
+        <v>10.714285714285715</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>74.683544303797461</v>
+        <v>70.238095238095241</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -860,7 +860,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>1.2658227848101264</v>
+        <v>1.1904761904761905</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
@@ -890,7 +890,7 @@
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>12.658227848101266</v>
+        <v>11.904761904761905</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -900,11 +900,11 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
-        <v>97.468354430379748</v>
+        <v>97.61904761904762</v>
       </c>
       <c r="D9" s="5">
         <f>SUM('Week 6:Week 27'!H11)</f>
@@ -912,7 +912,7 @@
       </c>
       <c r="E9" s="19">
         <f>D9/(B1/100)</f>
-        <v>2.5316455696202529</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="F9" s="14">
         <f>SUM('Week 6:Week 27'!H12)</f>
@@ -920,7 +920,7 @@
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>2.5316455696202529</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1244,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1991,7 +1991,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2050,13 +2050,25 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -2064,13 +2076,25 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -2078,13 +2102,25 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -2121,19 +2157,19 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
@@ -2141,11 +2177,11 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -686,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -703,7 +703,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -770,7 +770,7 @@
       </c>
       <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>7.1428571428571432</v>
+        <v>6.4516129032258061</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -800,7 +800,7 @@
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>16.666666666666668</v>
+        <v>15.053763440860214</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -830,7 +830,7 @@
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>10.714285714285715</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -840,11 +840,11 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>70.238095238095241</v>
+        <v>73.118279569892465</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -860,7 +860,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>1.1904761904761905</v>
+        <v>1.075268817204301</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
@@ -890,7 +890,7 @@
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>11.904761904761905</v>
+        <v>10.75268817204301</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -900,11 +900,11 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
-        <v>97.61904761904762</v>
+        <v>97.849462365591393</v>
       </c>
       <c r="D9" s="5">
         <f>SUM('Week 6:Week 27'!H11)</f>
@@ -912,7 +912,7 @@
       </c>
       <c r="E9" s="19">
         <f>D9/(B1/100)</f>
-        <v>2.3809523809523809</v>
+        <v>2.150537634408602</v>
       </c>
       <c r="F9" s="14">
         <f>SUM('Week 6:Week 27'!H12)</f>
@@ -920,7 +920,7 @@
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>2.3809523809523809</v>
+        <v>2.150537634408602</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -2255,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2315,13 +2315,27 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -2329,13 +2343,27 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -2343,13 +2371,27 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -2357,13 +2399,27 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -2386,31 +2442,31 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="5" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="38">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Gerwin en Rilana waren ziek.</t>
+  </si>
+  <si>
+    <t>Janneke doktor, Rilana ziek;</t>
   </si>
 </sst>
 </file>
@@ -826,11 +829,11 @@
       </c>
       <c r="F6" s="14">
         <f>SUM('Week 6:Week 27'!E12)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>9.67741935483871</v>
+        <v>11.827956989247312</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -840,11 +843,11 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>73.118279569892465</v>
+        <v>63.44086021505376</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -886,11 +889,11 @@
       </c>
       <c r="F8" s="14">
         <f>SUM('Week 6:Week 27'!G12)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>10.75268817204301</v>
+        <v>12.903225806451612</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -916,11 +919,11 @@
       </c>
       <c r="F9" s="14">
         <f>SUM('Week 6:Week 27'!H12)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>2.150537634408602</v>
+        <v>5.376344086021505</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -2256,7 +2259,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2328,7 +2331,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>4</v>
@@ -2356,15 +2359,18 @@
         <v>2</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
       </c>
       <c r="H4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1"/>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2381,18 +2387,21 @@
         <v>4</v>
       </c>
       <c r="E5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1"/>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2412,7 +2421,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>8</v>
@@ -2454,19 +2463,19 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -2514,6 +2523,15 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="E12" s="20">
+        <v>4</v>
+      </c>
+      <c r="G12" s="20">
+        <v>4</v>
+      </c>
+      <c r="H12" s="20">
+        <v>6</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -2541,7 +2559,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="41">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>Janneke doktor, Rilana ziek;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Arne</t>
   </si>
 </sst>
 </file>
@@ -687,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,7 +709,7 @@
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -715,7 +724,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -725,7 +734,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="17" t="s">
         <v>19</v>
@@ -747,7 +756,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -777,7 +786,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -807,7 +816,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -837,7 +846,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -867,7 +876,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -897,7 +906,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -927,15 +936,80 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5">
+        <f>SUM('Week 6:Week 27'!I8,F10)</f>
+        <v>186</v>
+      </c>
+      <c r="C10" s="19">
+        <f>B10/(B1/100)</f>
+        <v>100</v>
+      </c>
+      <c r="D10" s="5">
+        <f>SUM('Week 6:Week 27'!H12)</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="19">
+        <f>D10/(B1/100)</f>
+        <v>5.376344086021505</v>
+      </c>
+      <c r="F10" s="14">
+        <f>SUM('Week 6:Week 27'!H13)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <f>F10/(B1/100)</f>
+        <v>0</v>
+      </c>
       <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5">
+        <f>SUM('Week 6:Week 27'!J8,F11)</f>
+        <v>186</v>
+      </c>
+      <c r="C11" s="19">
+        <f>B11/(B1/100)</f>
+        <v>100</v>
+      </c>
+      <c r="D11" s="5">
+        <f>SUM('Week 6:Week 27'!H13)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <f>D11/(B1/100)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <f>SUM('Week 6:Week 27'!H14)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <f>F11/(B1/100)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2258,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2556,22 +2630,22 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" customWidth="1"/>
-    <col min="10" max="10" width="47.88671875" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" customWidth="1"/>
+    <col min="12" max="12" width="47.88671875" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -2594,27 +2668,41 @@
       <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="5">
+        <v>186</v>
+      </c>
+      <c r="J2" s="5">
+        <v>186</v>
+      </c>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2625,10 +2713,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2639,10 +2729,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2653,10 +2745,12 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2667,10 +2761,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2682,13 +2778,14 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5">
-        <f>SUM(B2+B3+B4+B5+B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="5">
@@ -2715,11 +2812,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8" s="5">
+        <f>SUM(I2:I6)</f>
+        <v>186</v>
+      </c>
+      <c r="J8" s="5">
+        <f>SUM(J2:J6)</f>
+        <v>186</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2729,10 +2834,12 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2744,28 +2851,30 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K11" s="1"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="1"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2775,8 +2884,10 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2787,7 +2898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -5523,7 +5634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="39">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -163,12 +163,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Arne</t>
   </si>
 </sst>
 </file>
@@ -696,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,77 +931,17 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="5">
-        <f>SUM('Week 6:Week 27'!I8,F10)</f>
-        <v>186</v>
-      </c>
-      <c r="C10" s="19">
-        <f>B10/(B1/100)</f>
-        <v>100</v>
-      </c>
-      <c r="D10" s="5">
-        <f>SUM('Week 6:Week 27'!H12)</f>
-        <v>10</v>
-      </c>
-      <c r="E10" s="19">
-        <f>D10/(B1/100)</f>
-        <v>5.376344086021505</v>
-      </c>
-      <c r="F10" s="14">
-        <f>SUM('Week 6:Week 27'!H13)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="18">
-        <f>F10/(B1/100)</f>
-        <v>0</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="5">
-        <f>SUM('Week 6:Week 27'!J8,F11)</f>
-        <v>186</v>
-      </c>
-      <c r="C11" s="19">
-        <f>B11/(B1/100)</f>
-        <v>100</v>
-      </c>
-      <c r="D11" s="5">
-        <f>SUM('Week 6:Week 27'!H13)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <f>D11/(B1/100)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <f>SUM('Week 6:Week 27'!H14)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <f>F11/(B1/100)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K15" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2630,22 +2564,22 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="11" max="11" width="3.109375" customWidth="1"/>
-    <col min="12" max="12" width="47.88671875" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" customWidth="1"/>
+    <col min="10" max="10" width="47.88671875" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -2668,19 +2602,13 @@
       <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>40</v>
+      <c r="I1" s="1"/>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K1" s="1"/>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2693,16 +2621,10 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5">
-        <v>186</v>
-      </c>
-      <c r="J2" s="5">
-        <v>186</v>
-      </c>
+      <c r="I2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2713,12 +2635,10 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="I3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2729,12 +2649,10 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2745,12 +2663,10 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2761,12 +2677,10 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2778,10 +2692,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -2812,19 +2724,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="5">
-        <f>SUM(I2:I6)</f>
-        <v>186</v>
-      </c>
-      <c r="J8" s="5">
-        <f>SUM(J2:J6)</f>
-        <v>186</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2834,12 +2738,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2851,30 +2753,28 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2884,10 +2784,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5634,7 +5532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="40">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Rilana ziek;</t>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -756,7 +759,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -776,7 +779,7 @@
       </c>
       <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>6.4516129032258061</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -786,7 +789,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -806,7 +809,7 @@
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>15.053763440860214</v>
+        <v>13.725490196078431</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -816,7 +819,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -836,7 +839,7 @@
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>11.827956989247312</v>
+        <v>10.784313725490195</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -846,11 +849,11 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>63.44086021505376</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -866,7 +869,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>1.075268817204301</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -876,11 +879,11 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
-        <v>100</v>
+        <v>98.039215686274503</v>
       </c>
       <c r="D8" s="5">
         <f>SUM('Week 6:Week 27'!G11)</f>
@@ -896,7 +899,7 @@
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>12.903225806451612</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -906,11 +909,11 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
-        <v>97.849462365591393</v>
+        <v>98.039215686274503</v>
       </c>
       <c r="D9" s="5">
         <f>SUM('Week 6:Week 27'!H11)</f>
@@ -918,7 +921,7 @@
       </c>
       <c r="E9" s="19">
         <f>D9/(B1/100)</f>
-        <v>2.150537634408602</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="F9" s="14">
         <f>SUM('Week 6:Week 27'!H12)</f>
@@ -926,7 +929,7 @@
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>5.376344086021505</v>
+        <v>4.9019607843137258</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -2567,7 +2570,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2628,27 +2631,58 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -2656,13 +2690,27 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -2670,13 +2718,27 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -2698,31 +2760,32 @@
         <v>13</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <f>SUM(B2:B6)</f>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -2797,7 +2860,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Desktop\Sexy-Egels\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Desktop\Orphanage\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -712,7 +712,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -759,7 +759,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -779,7 +779,7 @@
       </c>
       <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>5.8823529411764701</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -809,7 +809,7 @@
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>13.725490196078431</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -839,7 +839,7 @@
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>10.784313725490195</v>
+        <v>10.476190476190476</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -849,11 +849,11 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>66.666666666666671</v>
+        <v>34.285714285714285</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -869,7 +869,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>0.98039215686274506</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -879,11 +879,11 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
-        <v>98.039215686274503</v>
+        <v>98.095238095238088</v>
       </c>
       <c r="D8" s="5">
         <f>SUM('Week 6:Week 27'!G11)</f>
@@ -899,7 +899,7 @@
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>11.76470588235294</v>
+        <v>11.428571428571429</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -909,11 +909,11 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
-        <v>98.039215686274503</v>
+        <v>98.095238095238088</v>
       </c>
       <c r="D9" s="5">
         <f>SUM('Week 6:Week 27'!H11)</f>
@@ -921,7 +921,7 @@
       </c>
       <c r="E9" s="19">
         <f>D9/(B1/100)</f>
-        <v>1.9607843137254901</v>
+        <v>1.9047619047619047</v>
       </c>
       <c r="F9" s="14">
         <f>SUM('Week 6:Week 27'!H12)</f>
@@ -929,7 +929,7 @@
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>4.9019607843137258</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -959,7 +959,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>4</v>
@@ -1062,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
         <v>4</v>
@@ -1121,7 +1121,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>8</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1356,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -1384,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
         <v>4</v>
@@ -1412,7 +1412,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>8</v>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
@@ -2270,7 +2270,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2569,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2644,7 +2644,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -2703,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
         <v>4</v>
@@ -2731,7 +2731,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>8</v>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
@@ -2859,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2919,13 +2919,25 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -2933,13 +2945,25 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -2990,19 +3014,19 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
@@ -3010,11 +3034,11 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -3088,7 +3112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -6494,7 +6518,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6578,7 +6602,7 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -6609,7 +6633,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
         <v>4</v>
@@ -6637,7 +6661,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>8</v>
@@ -6683,7 +6707,7 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="41">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Rilana ziek;</t>
+  </si>
+  <si>
+    <t>Rilana Solicitatie</t>
   </si>
 </sst>
 </file>
@@ -712,7 +715,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -759,11 +762,11 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
-        <v>100</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="D4" s="5">
         <f>SUM('Week 6:Week 27'!C11)</f>
@@ -779,7 +782,7 @@
       </c>
       <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>5.7142857142857144</v>
+        <v>5.2631578947368425</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -789,11 +792,11 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
-        <v>100</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="D5" s="5">
         <f>SUM('Week 6:Week 27'!D11)</f>
@@ -809,7 +812,7 @@
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>13.333333333333332</v>
+        <v>12.280701754385966</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -819,11 +822,11 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
-        <v>100</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="D6" s="5">
         <f>SUM('Week 6:Week 27'!E11)</f>
@@ -839,7 +842,7 @@
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>10.476190476190476</v>
+        <v>9.6491228070175445</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -853,7 +856,7 @@
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>34.285714285714285</v>
+        <v>31.578947368421055</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -869,7 +872,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>0.95238095238095233</v>
+        <v>0.87719298245614041</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -879,11 +882,11 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
-        <v>98.095238095238088</v>
+        <v>98.245614035087726</v>
       </c>
       <c r="D8" s="5">
         <f>SUM('Week 6:Week 27'!G11)</f>
@@ -899,7 +902,7 @@
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>11.428571428571429</v>
+        <v>10.526315789473685</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -909,11 +912,11 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
-        <v>98.095238095238088</v>
+        <v>98.245614035087726</v>
       </c>
       <c r="D9" s="5">
         <f>SUM('Week 6:Week 27'!H11)</f>
@@ -921,7 +924,7 @@
       </c>
       <c r="E9" s="19">
         <f>D9/(B1/100)</f>
-        <v>1.9047619047619047</v>
+        <v>1.7543859649122808</v>
       </c>
       <c r="F9" s="14">
         <f>SUM('Week 6:Week 27'!H12)</f>
@@ -929,7 +932,7 @@
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>4.7619047619047619</v>
+        <v>4.3859649122807021</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -2859,7 +2862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -3113,7 +3116,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3172,13 +3175,25 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -3186,13 +3201,25 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -3200,13 +3227,25 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -3214,13 +3253,25 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -3243,19 +3294,19 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
@@ -3263,11 +3314,11 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -3342,7 +3393,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3420,9 +3471,14 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="1"/>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4101,7 +4157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="11" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="42">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Rilana Solicitatie</t>
+  </si>
+  <si>
+    <t>Janneke huwelijk feest.</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -762,11 +765,11 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5">
         <f>SUM('Week 6:Week 27'!C11)</f>
@@ -782,7 +785,7 @@
       </c>
       <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>5.2631578947368425</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -792,11 +795,11 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5">
         <f>SUM('Week 6:Week 27'!D11)</f>
@@ -812,7 +815,7 @@
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>12.280701754385966</v>
+        <v>11.382113821138212</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -822,11 +825,11 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5">
         <f>SUM('Week 6:Week 27'!E11)</f>
@@ -838,11 +841,11 @@
       </c>
       <c r="F6" s="14">
         <f>SUM('Week 6:Week 27'!E12)</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>9.6491228070175445</v>
+        <v>12.195121951219512</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -856,7 +859,7 @@
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>31.578947368421055</v>
+        <v>29.26829268292683</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -872,7 +875,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>0.87719298245614041</v>
+        <v>0.81300813008130079</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -882,11 +885,11 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
-        <v>98.245614035087726</v>
+        <v>98.373983739837399</v>
       </c>
       <c r="D8" s="5">
         <f>SUM('Week 6:Week 27'!G11)</f>
@@ -898,11 +901,11 @@
       </c>
       <c r="F8" s="14">
         <f>SUM('Week 6:Week 27'!G12)</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>10.526315789473685</v>
+        <v>13.821138211382115</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -912,11 +915,11 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
-        <v>98.245614035087726</v>
+        <v>98.373983739837399</v>
       </c>
       <c r="D9" s="5">
         <f>SUM('Week 6:Week 27'!H11)</f>
@@ -924,15 +927,15 @@
       </c>
       <c r="E9" s="19">
         <f>D9/(B1/100)</f>
-        <v>1.7543859649122808</v>
+        <v>1.6260162601626016</v>
       </c>
       <c r="F9" s="14">
         <f>SUM('Week 6:Week 27'!H12)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>4.3859649122807021</v>
+        <v>7.3170731707317076</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -3116,7 +3119,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3263,16 +3266,19 @@
         <v>8</v>
       </c>
       <c r="E6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1"/>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3306,7 +3312,7 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
@@ -3314,11 +3320,11 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -3366,6 +3372,15 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -3392,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3452,13 +3467,25 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -3466,15 +3493,25 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
         <v>40</v>
@@ -3485,13 +3522,25 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -3499,13 +3548,25 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -3528,19 +3589,19 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
@@ -3548,11 +3609,11 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -3600,6 +3661,9 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="G12">
+        <v>2</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -4157,7 +4221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +718,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -765,7 +765,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -785,7 +785,7 @@
       </c>
       <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>4.8780487804878048</v>
+        <v>4.545454545454545</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -815,7 +815,7 @@
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>11.382113821138212</v>
+        <v>10.606060606060606</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -845,7 +845,7 @@
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>12.195121951219512</v>
+        <v>11.363636363636363</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -855,11 +855,11 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>29.26829268292683</v>
+        <v>34.090909090909086</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -875,7 +875,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>0.81300813008130079</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -885,11 +885,11 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
-        <v>98.373983739837399</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5">
         <f>SUM('Week 6:Week 27'!G11)</f>
@@ -901,11 +901,11 @@
       </c>
       <c r="F8" s="14">
         <f>SUM('Week 6:Week 27'!G12)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>13.821138211382115</v>
+        <v>14.393939393939393</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -915,11 +915,11 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
-        <v>98.373983739837399</v>
+        <v>98.484848484848484</v>
       </c>
       <c r="D9" s="5">
         <f>SUM('Week 6:Week 27'!H11)</f>
@@ -927,7 +927,7 @@
       </c>
       <c r="E9" s="19">
         <f>D9/(B1/100)</f>
-        <v>1.6260162601626016</v>
+        <v>1.5151515151515151</v>
       </c>
       <c r="F9" s="14">
         <f>SUM('Week 6:Week 27'!H12)</f>
@@ -935,7 +935,7 @@
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>7.3170731707317076</v>
+        <v>6.8181818181818175</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -2576,7 +2576,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2839,6 +2839,9 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -3407,7 +3410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3993,7 +3996,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4052,13 +4055,27 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -4066,13 +4083,27 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -4080,13 +4111,27 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -4094,13 +4139,27 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -4123,31 +4182,31 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,11 +855,11 @@
       </c>
       <c r="B7" s="5">
         <f>SUM('Week 6:Week 27'!F8,F7)</f>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>34.090909090909086</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -2010,7 +2010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3996,7 +3996,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4068,7 +4068,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>4</v>
@@ -4096,7 +4096,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -4124,7 +4124,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
         <v>4</v>
@@ -4152,7 +4152,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>8</v>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepi\Desktop\Orphanage\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8412" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Percentages" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="44">
   <si>
     <t xml:space="preserve">David </t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Janneke huwelijk feest.</t>
+  </si>
+  <si>
+    <t>David Rijexamen, Rilana Ziek.</t>
+  </si>
+  <si>
+    <t>Janneke Ziek</t>
   </si>
 </sst>
 </file>
@@ -701,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -718,7 +724,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -765,7 +771,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -781,11 +787,11 @@
       </c>
       <c r="F4" s="14">
         <f>SUM('Week 6:Week 27'!C12)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>4.545454545454545</v>
+        <v>4.9645390070921991</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -795,7 +801,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -815,7 +821,7 @@
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>10.606060606060606</v>
+        <v>9.9290780141843982</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -825,7 +831,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -841,11 +847,11 @@
       </c>
       <c r="F6" s="14">
         <f>SUM('Week 6:Week 27'!E12)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>11.363636363636363</v>
+        <v>12.056737588652483</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -859,7 +865,7 @@
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>27.27272727272727</v>
+        <v>25.531914893617024</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -875,7 +881,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>0.75757575757575757</v>
+        <v>0.70921985815602839</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -885,7 +891,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
@@ -901,11 +907,11 @@
       </c>
       <c r="F8" s="14">
         <f>SUM('Week 6:Week 27'!G12)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>14.393939393939393</v>
+        <v>14.184397163120568</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -915,11 +921,11 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
-        <v>98.484848484848484</v>
+        <v>98.581560283687949</v>
       </c>
       <c r="D9" s="5">
         <f>SUM('Week 6:Week 27'!H11)</f>
@@ -927,7 +933,7 @@
       </c>
       <c r="E9" s="19">
         <f>D9/(B1/100)</f>
-        <v>1.5151515151515151</v>
+        <v>1.4184397163120568</v>
       </c>
       <c r="F9" s="14">
         <f>SUM('Week 6:Week 27'!H12)</f>
@@ -935,7 +941,7 @@
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>6.8181818181818175</v>
+        <v>6.3829787234042561</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -2010,7 +2016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -4281,7 +4287,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4340,13 +4346,25 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -4354,41 +4372,83 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -4411,19 +4471,19 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
@@ -4431,11 +4491,11 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -4483,6 +4543,15 @@
         <v>21</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>

--- a/Documents/Aanwezigheid Game labs 2.xlsx
+++ b/Documents/Aanwezigheid Game labs 2.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM('Week 6:Week 27'!B8)</f>
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="B4" s="5">
         <f>SUM('Week 6:Week 27'!C8, F4)</f>
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="C4" s="19">
         <f>B4/(B1/100)</f>
@@ -791,7 +791,7 @@
       </c>
       <c r="G4" s="18">
         <f>F4/(B1/100)</f>
-        <v>4.9645390070921991</v>
+        <v>4.4025157232704402</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B5" s="5">
         <f>SUM('Week 6:Week 27'!D8,F5)</f>
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="C5" s="19">
         <f>B5/(B1/100)</f>
@@ -821,7 +821,7 @@
       </c>
       <c r="G5" s="18">
         <f>F5/(B1/100)</f>
-        <v>9.9290780141843982</v>
+        <v>8.8050314465408803</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B6" s="5">
         <f>SUM('Week 6:Week 27'!E8,F6)</f>
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="C6" s="19">
         <f>B6/(B1/100)</f>
@@ -851,7 +851,7 @@
       </c>
       <c r="G6" s="18">
         <f>F6/(B1/100)</f>
-        <v>12.056737588652483</v>
+        <v>10.691823899371069</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="C7" s="19">
         <f>B7/(B1/100)</f>
-        <v>25.531914893617024</v>
+        <v>22.641509433962263</v>
       </c>
       <c r="D7" s="5">
         <f>SUM('Week 6:Week 27'!F11)</f>
@@ -881,7 +881,7 @@
       </c>
       <c r="G7" s="18">
         <f>F7/(B1/100)</f>
-        <v>0.70921985815602839</v>
+        <v>0.62893081761006286</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B8" s="5">
         <f>SUM('Week 6:Week 27'!G8,F8)</f>
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="C8" s="19">
         <f>B8/(B1/100)</f>
@@ -911,7 +911,7 @@
       </c>
       <c r="G8" s="18">
         <f>F8/(B1/100)</f>
-        <v>14.184397163120568</v>
+        <v>12.578616352201257</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -921,11 +921,11 @@
       </c>
       <c r="B9" s="5">
         <f>SUM('Week 6:Week 27'!H8,F9)</f>
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="C9" s="19">
         <f>B9/(B1/100)</f>
-        <v>98.581560283687949</v>
+        <v>98.742138364779876</v>
       </c>
       <c r="D9" s="5">
         <f>SUM('Week 6:Week 27'!H11)</f>
@@ -933,7 +933,7 @@
       </c>
       <c r="E9" s="19">
         <f>D9/(B1/100)</f>
-        <v>1.4184397163120568</v>
+        <v>1.2578616352201257</v>
       </c>
       <c r="F9" s="14">
         <f>SUM('Week 6:Week 27'!H12)</f>
@@ -941,7 +941,7 @@
       </c>
       <c r="G9" s="18">
         <f>F9/(B1/100)</f>
-        <v>6.3829787234042561</v>
+        <v>5.6603773584905657</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -4579,7 +4579,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4638,13 +4638,25 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -4652,13 +4664,25 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -4666,13 +4690,25 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -4680,13 +4716,25 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -4709,19 +4757,19 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
@@ -4729,11 +4777,11 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
@@ -4808,7 +4856,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4867,13 +4915,25 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
@@ -4881,13 +4941,25 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
     </row>
@@ -4895,13 +4967,25 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
     </row>
@@ -4909,13 +4993,25 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
     </row>
@@ -4938,19 +5034,19 @@
       </c>
       <c r="B8" s="5">
         <f>SUM(B2+B3+B4+B5+B6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="0">SUM(C2:C6)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
@@ -4958,11 +5054,11 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
